--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -43,117 +43,114 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shocked</t>
+    <t>dark</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
+    <t>least</t>
+  </si>
+  <si>
     <t>serious</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -166,190 +163,193 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>top</t>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>many</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>whole</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
     <t>today</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>w</t>
   </si>
   <si>
     <t>irony</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>facebook</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>know</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
+    <t>see</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>amp</t>
+    <t>’</t>
   </si>
   <si>
     <t>watched</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -710,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>112</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.7894736842105263</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8942307692307693</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.7222222222222222</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8461538461538461</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.7192982456140351</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13">
         <v>0.7</v>
@@ -1329,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.6933333333333334</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1379,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1397,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1429,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7826086956521739</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1447,31 +1447,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>5</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1479,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.65</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1529,49 +1529,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7272727272727273</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>8</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L18">
-        <v>26</v>
-      </c>
-      <c r="M18">
-        <v>26</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1579,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.5384615384615384</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1629,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1647,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.5277777777777778</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1679,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.5185185185185185</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1729,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6923076923076923</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="L22">
         <v>8</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22">
-        <v>0.5</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
       <c r="M22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1779,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6875</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1797,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1829,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6842105263157895</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1847,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.4242424242424243</v>
+        <v>0.4</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1879,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6808510638297872</v>
+        <v>0.625</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1929,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6666666666666666</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1947,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.3684210526315789</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1979,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.3529411764705883</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2029,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6470588235294118</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.3414634146341464</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2079,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6376811594202898</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C29">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2097,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.3260869565217391</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2129,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2147,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.3220338983050847</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2179,13 +2179,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6071428571428571</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2197,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>0.3214285714285715</v>
+        <v>0.2987249544626594</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2229,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5833333333333334</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.3076923076923077</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2279,38 +2279,38 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L33">
         <v>7</v>
       </c>
-      <c r="D33">
+      <c r="M33">
         <v>7</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33">
-        <v>0.3014571948998179</v>
-      </c>
-      <c r="L33">
-        <v>331</v>
-      </c>
-      <c r="M33">
-        <v>331</v>
-      </c>
       <c r="N33">
         <v>1</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>767</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2329,13 +2329,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.2950819672131147</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2379,13 +2379,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5128205128205128</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>0.2692307692307692</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2429,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K36">
-        <v>0.2608695652173913</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2479,13 +2479,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4857142857142857</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2497,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K37">
-        <v>0.2307692307692308</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2529,13 +2529,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2547,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38">
-        <v>0.2285714285714286</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2579,13 +2579,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3928571428571428</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2597,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K39">
-        <v>0.2037037037037037</v>
+        <v>0.2</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2629,13 +2629,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>0.1935483870967742</v>
+        <v>0.2</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2679,87 +2679,63 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2307692307692308</v>
+        <v>0.05536332179930796</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>0.2</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K41">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41">
-        <v>16</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.06143344709897611</v>
-      </c>
-      <c r="C42">
-        <v>18</v>
-      </c>
-      <c r="D42">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>0.25</v>
-      </c>
-      <c r="F42">
-        <v>0.75</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>275</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="K42">
-        <v>0.1851851851851852</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2771,21 +2747,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>0.1764705882352941</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2797,21 +2773,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>0.1707317073170732</v>
+        <v>0.15</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2828,16 +2804,16 @@
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K45">
-        <v>0.1690140845070423</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2849,21 +2825,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K46">
-        <v>0.1643835616438356</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2880,16 +2856,16 @@
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47">
-        <v>0.1578947368421053</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2901,15 +2877,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K48">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="L48">
         <v>6</v>
@@ -2927,21 +2903,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K49">
-        <v>0.14</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2953,21 +2929,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K50">
-        <v>0.1203703703703704</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L50">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2979,21 +2955,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>475</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K51">
-        <v>0.09487951807228916</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L51">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3005,21 +2981,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>601</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K52">
-        <v>0.08955223880597014</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3031,21 +3007,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K53">
-        <v>0.08833922261484099</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3057,47 +3033,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>258</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K54">
-        <v>0.08759124087591241</v>
+        <v>0.09461966604823747</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>125</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K55">
-        <v>0.08211143695014662</v>
+        <v>0.08504398826979472</v>
       </c>
       <c r="L55">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3109,15 +3085,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K56">
-        <v>0.0759493670886076</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L56">
         <v>6</v>
@@ -3135,21 +3111,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K57">
-        <v>0.07467532467532467</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L57">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3161,21 +3137,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>570</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K58">
-        <v>0.07339449541284404</v>
+        <v>0.07981927710843373</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3187,21 +3163,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>101</v>
+        <v>611</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K59">
-        <v>0.0625</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3213,47 +3189,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>90</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K60">
-        <v>0.0576036866359447</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L60">
+        <v>8</v>
+      </c>
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>100</v>
-      </c>
-      <c r="M60">
-        <v>100</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>1636</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K61">
-        <v>0.05714285714285714</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3265,47 +3241,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>297</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K62">
-        <v>0.05555555555555555</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>102</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K63">
-        <v>0.05303030303030303</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3317,21 +3293,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K64">
-        <v>0.04651162790697674</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3343,21 +3319,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K65">
-        <v>0.03472222222222222</v>
+        <v>0.06105990783410138</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3369,59 +3345,85 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>278</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K66">
-        <v>0.03461538461538462</v>
+        <v>0.04370179948586118</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M66">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="K67">
-        <v>0.02135231316725979</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N67">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>275</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68">
+        <v>0.0353356890459364</v>
+      </c>
+      <c r="L68">
+        <v>10</v>
+      </c>
+      <c r="M68">
+        <v>26</v>
+      </c>
+      <c r="N68">
+        <v>0.38</v>
+      </c>
+      <c r="O68">
+        <v>0.62</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
